--- a/data/long_razon/P18_2-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_2-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-50,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-39,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-60,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>64,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-56,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-69,83; -12,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-64,71; -3,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 67,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-72,78; -42,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,76; 143,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 48,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-67,36; -40,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 40,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 39,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-60,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-57,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-58,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>58,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,43; -48,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,09; 130,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 62,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,64; -45,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,4; 84,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 15,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,72; -51,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,28; 91,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 27,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-56,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>111,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-67,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>137,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-62,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>125,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-69,29; -40,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,68; 210,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 47,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-75,78; -56,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,35; 213,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 17,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,14; -52,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,8; 183,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 25,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-57,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-61,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-59,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,62; -47,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,42; 80,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 40,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,68; -53,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,75; 106,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 13,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,31; -54,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,47; 82,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 19,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_2-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_2-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.2929094230413263</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4612325915059186</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1222323559381336</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.5182923446673265</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.4660510190830777</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.7038588315604627</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.02590486163495725</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.430075725625962</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.3913772038174145</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.02484907822596133</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.06433670000125986</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.4699986296398183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.6014394145162335</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7060903208572824</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2335106654165073</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1326940884363277</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.6774029950695987</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.05052545394766111</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2139104341234129</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.0388154801769492</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.5794856571851933</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2901225871762036</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1473027736471708</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.02678734496005289</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.2096024695788581</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.1356391315871772</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.6797729234467118</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.373581282206162</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.1567674076031881</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.65184874351282</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3403826769203026</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.178617076861569</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.1443722574086757</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.4074663256346299</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.3355032454091865</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.299827009341538</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.562814444146151</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8337115974523357</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2426279866227171</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.161663835314948</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.5009764629434151</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.4187793025323274</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.06729468297699026</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1931660645897257</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.5331466528758333</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.6040455183105891</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.0879282188459735</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.02783124130089195</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.693752913060434</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.3937338357275825</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.03742553136548594</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1578485353878024</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.6344304173089552</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.0874199072243923</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2618266364966977</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4036936725540679</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.6282199351040691</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.3040845457509581</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.0762631864885063</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2246825682499638</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.4087485346475871</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.656917286482445</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5843594885421377</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.7116639271599566</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.3004083144792644</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.9012222148129959</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.1365618830496828</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.06387292096472613</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.4129237192897639</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.9913370505933271</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.304397255742251</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.2154630157017669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +931,284 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.5797191678894467</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.139438695103101</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.0838712769988967</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.06185611696497607</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.7038933336309512</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1.517174254195445</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.06258124490509955</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.2094473513090324</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.6501922609782101</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>1.338587094227384</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.006278938985041437</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.0835392618963326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.7127418303341918</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4994477378912149</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1941930673960287</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2452200021012758</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.7948604222189315</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.854552241794821</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2768655475541305</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3885916608491703</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.7291383775590324</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.8489247584066375</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.1526767253636595</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2592336773799611</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.372622010501563</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.115775113652915</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4612941761809118</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.5033263131862277</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.589447729939291</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.338940422954692</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.180923070403912</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.05034002293386982</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.5336187316567157</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.945820594984506</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.2264899228575412</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.1816158077216457</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.527606462882111</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5252089544762417</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1728641299506028</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1937810968797725</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.57242510271977</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.774402293502636</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.04084118561230845</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.0753680730837544</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.551164970448201</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.6529305395971322</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.05913742972024155</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.04916150611307239</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.6239585931709378</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1807358912268471</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.01091954972797767</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.06916221454781556</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.6540613003156713</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.5008098254692033</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1713503179240127</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2176592211000728</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.6149380464677655</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.4496354634027571</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.04604265456359184</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.08332141290172991</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.3980255954208298</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9000670445451761</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3831164440906051</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.5359755493030212</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.4753260245580656</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.17376403803696</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.105696042924022</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1063754382828512</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.4782637032621705</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.9190750455530381</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.1840963605663345</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.2439827114397038</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
